--- a/8001/EXPECTED@latest/Operator Reports/DevOps/Repo Stats.xlsx
+++ b/8001/EXPECTED@latest/Operator Reports/DevOps/Repo Stats.xlsx
@@ -5,32 +5,32 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Alex\Code\ea-housekeeping\application_chassis_scenarios\8001\EXPECTED@latest\Operator Reports\DevOps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Alex\Code\conway_fork\conway.scenarios\8001\EXPECTED@latest\Operator Reports\DevOps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A97E9E-7076-4C8B-A47B-3E97B211F613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F9631D-686A-4B4F-AE14-D331232DCD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
-    <sheet name="foo_app (Local)" sheetId="2" r:id="rId2"/>
-    <sheet name="foo_app (Remote)" sheetId="3" r:id="rId3"/>
-    <sheet name="foo_app_docs (Local)" sheetId="4" r:id="rId4"/>
-    <sheet name="foo_app_docs (Remote)" sheetId="5" r:id="rId5"/>
-    <sheet name="foo_app_test (Local)" sheetId="6" r:id="rId6"/>
-    <sheet name="foo_app_test (Remote)" sheetId="7" r:id="rId7"/>
-    <sheet name="foo_app_scenarios (Local)" sheetId="8" r:id="rId8"/>
-    <sheet name="foo_app_scenarios (Remote)" sheetId="9" r:id="rId9"/>
-    <sheet name="foo_app_ops (Local)" sheetId="10" r:id="rId10"/>
-    <sheet name="foo_app_ops (Remote)" sheetId="11" r:id="rId11"/>
+    <sheet name="foo_app.svc (Local)" sheetId="2" r:id="rId2"/>
+    <sheet name="foo_app.svc (Remote)" sheetId="3" r:id="rId3"/>
+    <sheet name="foo_app.docs (Local)" sheetId="4" r:id="rId4"/>
+    <sheet name="foo_app.docs (Remote)" sheetId="5" r:id="rId5"/>
+    <sheet name="foo_app.test (Local)" sheetId="6" r:id="rId6"/>
+    <sheet name="foo_app.test (Remote)" sheetId="7" r:id="rId7"/>
+    <sheet name="foo_app.scenarios (Local)" sheetId="8" r:id="rId8"/>
+    <sheet name="foo_app.scenarios (Remote)" sheetId="9" r:id="rId9"/>
+    <sheet name="foo_app.ops (Local)" sheetId="10" r:id="rId10"/>
+    <sheet name="foo_app.ops (Remote)" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="29">
   <si>
     <t>Repo</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Current Branch</t>
   </si>
   <si>
-    <t>Is dirty</t>
-  </si>
-  <si>
     <t># Untracked files</t>
   </si>
   <si>
@@ -56,9 +53,6 @@
     <t>Last commit hash</t>
   </si>
   <si>
-    <t>foo_app</t>
-  </si>
-  <si>
     <t>Local</t>
   </si>
   <si>
@@ -74,18 +68,6 @@
     <t>Remote</t>
   </si>
   <si>
-    <t>foo_app_docs</t>
-  </si>
-  <si>
-    <t>foo_app_test</t>
-  </si>
-  <si>
-    <t>foo_app_scenarios</t>
-  </si>
-  <si>
-    <t>foo_app_ops</t>
-  </si>
-  <si>
     <t>Commit #</t>
   </si>
   <si>
@@ -110,13 +92,31 @@
     <t>.gitignore</t>
   </si>
   <si>
-    <t>Alejandro Hernandez &lt;alejandro.hernandez@finastra.com&gt;</t>
-  </si>
-  <si>
     <t>README.md</t>
   </si>
   <si>
     <t>master</t>
+  </si>
+  <si>
+    <t># Modified files</t>
+  </si>
+  <si>
+    <t># Deleted files</t>
+  </si>
+  <si>
+    <t>foo_app.svc</t>
+  </si>
+  <si>
+    <t>foo_app.docs</t>
+  </si>
+  <si>
+    <t>foo_app.test</t>
+  </si>
+  <si>
+    <t>foo_app.scenarios</t>
+  </si>
+  <si>
+    <t>foo_app.ops</t>
   </si>
 </sst>
 </file>
@@ -536,26 +536,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="40.6640625" customWidth="1"/>
-    <col min="7" max="7" width="30.6640625" customWidth="1"/>
-    <col min="8" max="8" width="45.6640625" customWidth="1"/>
+    <col min="3" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="40.6640625" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" customWidth="1"/>
+    <col min="9" max="9" width="45.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -569,276 +569,309 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="b">
+      <c r="D2" s="2">
         <v>0</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="C11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="3" t="b">
+        <v>21</v>
+      </c>
+      <c r="D11" s="3">
         <v>0</v>
       </c>
       <c r="E11" s="3">
         <v>0</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>11</v>
+      <c r="F11" s="3">
+        <v>0</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -854,7 +887,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -870,71 +903,71 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -946,11 +979,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -966,71 +999,71 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1046,7 +1079,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1062,71 +1095,71 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1142,7 +1175,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1158,71 +1191,71 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1238,7 +1271,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1254,71 +1287,71 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1334,7 +1367,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1350,71 +1383,71 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1430,7 +1463,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1446,71 +1479,71 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1526,7 +1559,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1542,71 +1575,71 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1622,7 +1655,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1638,71 +1671,71 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1718,7 +1751,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1734,71 +1767,71 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
